--- a/Results.xlsx
+++ b/Results.xlsx
@@ -526,6 +526,42 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" t="n">
+        <v>69</v>
+      </c>
+      <c r="K4" t="n">
+        <v>93</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" t="n">
+        <v>40</v>
+      </c>
+      <c r="N4" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -536,6 +572,42 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.8423569518907597</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7767474854993486</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8731793366770999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8525435178157603</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9890812278713497</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9657540756177319</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9553289359700488</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8666501462109559</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7938399369419022</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9607574055162089</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7622945789047235</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8133792178998327</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -546,6 +618,42 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -556,6 +664,42 @@
       <c r="B8" t="n">
         <v>2</v>
       </c>
+      <c r="C8" t="n">
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>77</v>
+      </c>
+      <c r="G8" t="n">
+        <v>36</v>
+      </c>
+      <c r="H8" t="n">
+        <v>74</v>
+      </c>
+      <c r="I8" t="n">
+        <v>88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>60</v>
+      </c>
+      <c r="K8" t="n">
+        <v>38</v>
+      </c>
+      <c r="L8" t="n">
+        <v>31</v>
+      </c>
+      <c r="M8" t="n">
+        <v>28</v>
+      </c>
+      <c r="N8" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -566,6 +710,42 @@
       <c r="B9" t="n">
         <v>2</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.886666764078049</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.85956697261821</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.765522866307351</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8887801280019034</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9966346144780271</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9059187218904565</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.8886450343503314</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8448346901778923</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9240804462647763</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8130321164416359</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.9333117962825921</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9803165960844962</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -576,6 +756,42 @@
       <c r="B10" t="n">
         <v>2</v>
       </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -586,6 +802,42 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
+      <c r="C12" t="n">
+        <v>88</v>
+      </c>
+      <c r="D12" t="n">
+        <v>60</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>44</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>82</v>
+      </c>
+      <c r="I12" t="n">
+        <v>40</v>
+      </c>
+      <c r="J12" t="n">
+        <v>27</v>
+      </c>
+      <c r="K12" t="n">
+        <v>62</v>
+      </c>
+      <c r="L12" t="n">
+        <v>17</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -596,6 +848,42 @@
       <c r="B13" t="n">
         <v>3</v>
       </c>
+      <c r="C13" t="n">
+        <v>0.9980386862428265</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9801281156216728</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8589245440304443</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9964499128564355</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8279472408505768</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9620890768802219</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7875203074797508</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8716479775905253</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9733399496277724</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.9201648104442695</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8469211899571818</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.9620890768802219</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -606,6 +894,42 @@
       <c r="B14" t="n">
         <v>3</v>
       </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -616,6 +940,42 @@
       <c r="B16" t="n">
         <v>4</v>
       </c>
+      <c r="C16" t="n">
+        <v>88</v>
+      </c>
+      <c r="D16" t="n">
+        <v>60</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>51</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>13</v>
+      </c>
+      <c r="I16" t="n">
+        <v>44</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>94</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>56</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -626,6 +986,42 @@
       <c r="B17" t="n">
         <v>4</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.9980386862428265</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9801281156216728</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8589245440304443</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.968065802843685</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.955173649282069</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8209306098729514</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9964499128564355</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8279472408505768</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8696116844978763</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.9842570765602545</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8962030406316541</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.761651385133896</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -635,6 +1031,42 @@
       </c>
       <c r="B18" t="n">
         <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
